--- a/Amamolex/Amamolex_Verbs.xlsx
+++ b/Amamolex/Amamolex_Verbs.xlsx
@@ -205,10 +205,10 @@
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="6.75" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="6.75" customWidth="1"/>
+    <col min="5" max="5" width="9.450000000000001" customWidth="1"/>
     <col min="6" max="6" width="6.75" customWidth="1"/>
-    <col min="7" max="7" width="9.450000000000001" customWidth="1"/>
-    <col min="8" max="8" width="14.850000000000001" customWidth="1"/>
+    <col min="7" max="7" width="10.8" customWidth="1"/>
+    <col min="8" max="8" width="16.200000000000003" customWidth="1"/>
     <col min="9" max="9" width="9.450000000000001" customWidth="1"/>
     <col min="10" max="10" width="18.900000000000002" customWidth="1"/>
     <col min="11" max="11" width="43.2" customWidth="1"/>
@@ -220,7 +220,7 @@
     <row r="1">
       <c t="inlineStr" r="A1" s="51">
         <is>
-          <t xml:space="preserve">NAP-Verb-Conjugation-1750327155010</t>
+          <t xml:space="preserve">NAP-Verb-Conjugation-1750430813440</t>
         </is>
       </c>
     </row>
@@ -562,17 +562,17 @@
       </c>
       <c t="inlineStr" r="G7">
         <is>
-          <t xml:space="preserve">ትናገራለሽ</t>
+          <t xml:space="preserve">ትናገራለች</t>
         </is>
       </c>
       <c t="inlineStr" r="H7">
         <is>
-          <t xml:space="preserve">tnageralex</t>
+          <t xml:space="preserve">tnageralec</t>
         </is>
       </c>
       <c t="inlineStr" r="I7">
         <is>
-          <t xml:space="preserve">[ት+ለሽ]</t>
+          <t xml:space="preserve">[ት+ለች]</t>
         </is>
       </c>
       <c t="inlineStr" r="J7">
@@ -1011,6 +1011,1446 @@
         </is>
       </c>
       <c t="inlineStr" r="M14">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="65">
+        <v>13</v>
+      </c>
+      <c t="inlineStr" r="B15">
+        <is>
+          <t xml:space="preserve">02</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C15">
+        <is>
+          <t xml:space="preserve">00001</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D15">
+        <is>
+          <t xml:space="preserve">ስንብት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E15">
+        <is>
+          <t xml:space="preserve">ስ⁞ን⁞ብ⁞ት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G15">
+        <is>
+          <t xml:space="preserve">እሰነብታለሁ</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H15">
+        <is>
+          <t xml:space="preserve">Isenebtalehu</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I15">
+        <is>
+          <t xml:space="preserve">[እ+ለሁ]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J15">
+        <is>
+          <t xml:space="preserve">VINA•01T1SF•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K15">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L15">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M15">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="65">
+        <v>14</v>
+      </c>
+      <c t="inlineStr" r="B16">
+        <is>
+          <t xml:space="preserve">02</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C16">
+        <is>
+          <t xml:space="preserve">00002</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D16">
+        <is>
+          <t xml:space="preserve">ስንብት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E16">
+        <is>
+          <t xml:space="preserve">ስ⁞ን⁞ብ⁞ት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G16">
+        <is>
+          <t xml:space="preserve">እሰነብታለሁ</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H16">
+        <is>
+          <t xml:space="preserve">Isenebtalehu</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I16">
+        <is>
+          <t xml:space="preserve">[እ+ለሁ]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J16">
+        <is>
+          <t xml:space="preserve">VINA•01T1SM•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K16">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L16">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M16">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="65">
+        <v>15</v>
+      </c>
+      <c t="inlineStr" r="B17">
+        <is>
+          <t xml:space="preserve">02</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C17">
+        <is>
+          <t xml:space="preserve">00003</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D17">
+        <is>
+          <t xml:space="preserve">ስንብት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E17">
+        <is>
+          <t xml:space="preserve">ስ⁞ን⁞ብ⁞ት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G17">
+        <is>
+          <t xml:space="preserve">እንሰነብታለን</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H17">
+        <is>
+          <t xml:space="preserve">Insenebtalen</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I17">
+        <is>
+          <t xml:space="preserve">[እን+ለን]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J17">
+        <is>
+          <t xml:space="preserve">VINA•01T1PF•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K17">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L17">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M17">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="65">
+        <v>16</v>
+      </c>
+      <c t="inlineStr" r="B18">
+        <is>
+          <t xml:space="preserve">02</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C18">
+        <is>
+          <t xml:space="preserve">00004</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D18">
+        <is>
+          <t xml:space="preserve">ስንብት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E18">
+        <is>
+          <t xml:space="preserve">ስ⁞ን⁞ብ⁞ት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G18">
+        <is>
+          <t xml:space="preserve">እንሰነብታለን</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H18">
+        <is>
+          <t xml:space="preserve">Insenebtalen</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I18">
+        <is>
+          <t xml:space="preserve">[እን+ለን]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J18">
+        <is>
+          <t xml:space="preserve">VINA•01T1PM•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K18">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L18">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M18">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="65">
+        <v>17</v>
+      </c>
+      <c t="inlineStr" r="B19">
+        <is>
+          <t xml:space="preserve">02</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C19">
+        <is>
+          <t xml:space="preserve">00005</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D19">
+        <is>
+          <t xml:space="preserve">ስንብት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E19">
+        <is>
+          <t xml:space="preserve">ስ⁞ን⁞ብ⁞ት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G19">
+        <is>
+          <t xml:space="preserve">ትሰነብታለች</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H19">
+        <is>
+          <t xml:space="preserve">tsenebtalec</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I19">
+        <is>
+          <t xml:space="preserve">[ት+ለች]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J19">
+        <is>
+          <t xml:space="preserve">VINA•01T2SF•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K19">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L19">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M19">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="65">
+        <v>18</v>
+      </c>
+      <c t="inlineStr" r="B20">
+        <is>
+          <t xml:space="preserve">02</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C20">
+        <is>
+          <t xml:space="preserve">00006</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D20">
+        <is>
+          <t xml:space="preserve">ስንብት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E20">
+        <is>
+          <t xml:space="preserve">ስ⁞ን⁞ብ⁞ት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G20">
+        <is>
+          <t xml:space="preserve">ትሰነብታለህ</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H20">
+        <is>
+          <t xml:space="preserve">tsenebtaleh</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I20">
+        <is>
+          <t xml:space="preserve">[ት+ለህ]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J20">
+        <is>
+          <t xml:space="preserve">VINA•01T2SM•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K20">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L20">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M20">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="65">
+        <v>19</v>
+      </c>
+      <c t="inlineStr" r="B21">
+        <is>
+          <t xml:space="preserve">02</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C21">
+        <is>
+          <t xml:space="preserve">00007</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D21">
+        <is>
+          <t xml:space="preserve">ስንብት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E21">
+        <is>
+          <t xml:space="preserve">ስ⁞ን⁞ብ⁞ት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G21">
+        <is>
+          <t xml:space="preserve">ትሰነብታችሁ</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H21">
+        <is>
+          <t xml:space="preserve">tsenebtachu</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I21">
+        <is>
+          <t xml:space="preserve">[ት+ችሁ]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J21">
+        <is>
+          <t xml:space="preserve">VINA•01T2PF•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K21">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L21">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M21">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="65">
+        <v>20</v>
+      </c>
+      <c t="inlineStr" r="B22">
+        <is>
+          <t xml:space="preserve">02</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C22">
+        <is>
+          <t xml:space="preserve">00008</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D22">
+        <is>
+          <t xml:space="preserve">ስንብት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E22">
+        <is>
+          <t xml:space="preserve">ስ⁞ን⁞ብ⁞ት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G22">
+        <is>
+          <t xml:space="preserve">ትሰነብታችሁ</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H22">
+        <is>
+          <t xml:space="preserve">tsenebtachu</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I22">
+        <is>
+          <t xml:space="preserve">[ት+ችሁ]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J22">
+        <is>
+          <t xml:space="preserve">VINA•01T2PM•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K22">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L22">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M22">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="65">
+        <v>21</v>
+      </c>
+      <c t="inlineStr" r="B23">
+        <is>
+          <t xml:space="preserve">02</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C23">
+        <is>
+          <t xml:space="preserve">00009</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D23">
+        <is>
+          <t xml:space="preserve">ስንብት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E23">
+        <is>
+          <t xml:space="preserve">ስ⁞ን⁞ብ⁞ት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G23">
+        <is>
+          <t xml:space="preserve">ትሰነብታለች</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H23">
+        <is>
+          <t xml:space="preserve">tsenebtalec</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I23">
+        <is>
+          <t xml:space="preserve">[ት+ለች]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J23">
+        <is>
+          <t xml:space="preserve">VINA•01T3SF•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K23">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L23">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M23">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="65">
+        <v>22</v>
+      </c>
+      <c t="inlineStr" r="B24">
+        <is>
+          <t xml:space="preserve">02</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C24">
+        <is>
+          <t xml:space="preserve">00010</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D24">
+        <is>
+          <t xml:space="preserve">ስንብት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E24">
+        <is>
+          <t xml:space="preserve">ስ⁞ን⁞ብ⁞ት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G24">
+        <is>
+          <t xml:space="preserve">ይሰነብታሉ</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H24">
+        <is>
+          <t xml:space="preserve">ysenebtalu</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I24">
+        <is>
+          <t xml:space="preserve">[ይ+ሉ]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J24">
+        <is>
+          <t xml:space="preserve">VINA•01T3SM•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K24">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L24">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M24">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="65">
+        <v>23</v>
+      </c>
+      <c t="inlineStr" r="B25">
+        <is>
+          <t xml:space="preserve">02</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C25">
+        <is>
+          <t xml:space="preserve">00011</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D25">
+        <is>
+          <t xml:space="preserve">ስንብት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E25">
+        <is>
+          <t xml:space="preserve">ስ⁞ን⁞ብ⁞ት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G25">
+        <is>
+          <t xml:space="preserve">ይሰነብታሉ</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H25">
+        <is>
+          <t xml:space="preserve">ysenebtalu</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I25">
+        <is>
+          <t xml:space="preserve">[ይ+ሉ]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J25">
+        <is>
+          <t xml:space="preserve">VINA•01T3PF•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K25">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L25">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M25">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="65">
+        <v>24</v>
+      </c>
+      <c t="inlineStr" r="B26">
+        <is>
+          <t xml:space="preserve">02</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C26">
+        <is>
+          <t xml:space="preserve">00012</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D26">
+        <is>
+          <t xml:space="preserve">ስንብት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E26">
+        <is>
+          <t xml:space="preserve">ስ⁞ን⁞ብ⁞ት</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G26">
+        <is>
+          <t xml:space="preserve">ይሰነብታሉ</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H26">
+        <is>
+          <t xml:space="preserve">ysenebtalu</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I26">
+        <is>
+          <t xml:space="preserve">[ይ+ሉ]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J26">
+        <is>
+          <t xml:space="preserve">VINA•01T3PM•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K26">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L26">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M26">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="65">
+        <v>25</v>
+      </c>
+      <c t="inlineStr" r="B27">
+        <is>
+          <t xml:space="preserve">03</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C27">
+        <is>
+          <t xml:space="preserve">00001</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D27">
+        <is>
+          <t xml:space="preserve">ምስክር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E27">
+        <is>
+          <t xml:space="preserve">ም⁞ስ⁞ክ⁞ር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G27">
+        <is>
+          <t xml:space="preserve">እመሰክራለሁ</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H27">
+        <is>
+          <t xml:space="preserve">Imesekralehu</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I27">
+        <is>
+          <t xml:space="preserve">[እ+ለሁ]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J27">
+        <is>
+          <t xml:space="preserve">VINA•01T1SF•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K27">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L27">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M27">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="65">
+        <v>26</v>
+      </c>
+      <c t="inlineStr" r="B28">
+        <is>
+          <t xml:space="preserve">03</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C28">
+        <is>
+          <t xml:space="preserve">00002</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D28">
+        <is>
+          <t xml:space="preserve">ምስክር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E28">
+        <is>
+          <t xml:space="preserve">ም⁞ስ⁞ክ⁞ር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G28">
+        <is>
+          <t xml:space="preserve">እመሰክራለሁ</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H28">
+        <is>
+          <t xml:space="preserve">Imesekralehu</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I28">
+        <is>
+          <t xml:space="preserve">[እ+ለሁ]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J28">
+        <is>
+          <t xml:space="preserve">VINA•01T1SM•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K28">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L28">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M28">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="65">
+        <v>27</v>
+      </c>
+      <c t="inlineStr" r="B29">
+        <is>
+          <t xml:space="preserve">03</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C29">
+        <is>
+          <t xml:space="preserve">00003</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D29">
+        <is>
+          <t xml:space="preserve">ምስክር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E29">
+        <is>
+          <t xml:space="preserve">ም⁞ስ⁞ክ⁞ር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G29">
+        <is>
+          <t xml:space="preserve">እንመሰክራለን</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H29">
+        <is>
+          <t xml:space="preserve">Inmesekralen</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I29">
+        <is>
+          <t xml:space="preserve">[እን+ለን]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J29">
+        <is>
+          <t xml:space="preserve">VINA•01T1PF•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K29">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L29">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M29">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="65">
+        <v>28</v>
+      </c>
+      <c t="inlineStr" r="B30">
+        <is>
+          <t xml:space="preserve">03</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C30">
+        <is>
+          <t xml:space="preserve">00004</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D30">
+        <is>
+          <t xml:space="preserve">ምስክር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E30">
+        <is>
+          <t xml:space="preserve">ም⁞ስ⁞ክ⁞ር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G30">
+        <is>
+          <t xml:space="preserve">እንመሰክራለን</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H30">
+        <is>
+          <t xml:space="preserve">Inmesekralen</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I30">
+        <is>
+          <t xml:space="preserve">[እን+ለን]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J30">
+        <is>
+          <t xml:space="preserve">VINA•01T1PM•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K30">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L30">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M30">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="65">
+        <v>29</v>
+      </c>
+      <c t="inlineStr" r="B31">
+        <is>
+          <t xml:space="preserve">03</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C31">
+        <is>
+          <t xml:space="preserve">00005</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D31">
+        <is>
+          <t xml:space="preserve">ምስክር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E31">
+        <is>
+          <t xml:space="preserve">ም⁞ስ⁞ክ⁞ር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G31">
+        <is>
+          <t xml:space="preserve">ትመሰክራለች</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H31">
+        <is>
+          <t xml:space="preserve">tmesekralec</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I31">
+        <is>
+          <t xml:space="preserve">[ት+ለች]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J31">
+        <is>
+          <t xml:space="preserve">VINA•01T2SF•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K31">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L31">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M31">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="65">
+        <v>30</v>
+      </c>
+      <c t="inlineStr" r="B32">
+        <is>
+          <t xml:space="preserve">03</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C32">
+        <is>
+          <t xml:space="preserve">00006</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D32">
+        <is>
+          <t xml:space="preserve">ምስክር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E32">
+        <is>
+          <t xml:space="preserve">ም⁞ስ⁞ክ⁞ር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G32">
+        <is>
+          <t xml:space="preserve">ትመሰክራለህ</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H32">
+        <is>
+          <t xml:space="preserve">tmesekraleh</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I32">
+        <is>
+          <t xml:space="preserve">[ት+ለህ]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J32">
+        <is>
+          <t xml:space="preserve">VINA•01T2SM•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K32">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L32">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M32">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="65">
+        <v>31</v>
+      </c>
+      <c t="inlineStr" r="B33">
+        <is>
+          <t xml:space="preserve">03</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C33">
+        <is>
+          <t xml:space="preserve">00007</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D33">
+        <is>
+          <t xml:space="preserve">ምስክር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E33">
+        <is>
+          <t xml:space="preserve">ም⁞ስ⁞ክ⁞ር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G33">
+        <is>
+          <t xml:space="preserve">ትመሰክራችሁ</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H33">
+        <is>
+          <t xml:space="preserve">tmesekrachu</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I33">
+        <is>
+          <t xml:space="preserve">[ት+ችሁ]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J33">
+        <is>
+          <t xml:space="preserve">VINA•01T2PF•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K33">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L33">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M33">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="65">
+        <v>32</v>
+      </c>
+      <c t="inlineStr" r="B34">
+        <is>
+          <t xml:space="preserve">03</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C34">
+        <is>
+          <t xml:space="preserve">00008</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D34">
+        <is>
+          <t xml:space="preserve">ምስክር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E34">
+        <is>
+          <t xml:space="preserve">ም⁞ስ⁞ክ⁞ር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G34">
+        <is>
+          <t xml:space="preserve">ትመሰክራችሁ</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H34">
+        <is>
+          <t xml:space="preserve">tmesekrachu</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I34">
+        <is>
+          <t xml:space="preserve">[ት+ችሁ]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J34">
+        <is>
+          <t xml:space="preserve">VINA•01T2PM•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K34">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L34">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M34">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="65">
+        <v>33</v>
+      </c>
+      <c t="inlineStr" r="B35">
+        <is>
+          <t xml:space="preserve">03</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C35">
+        <is>
+          <t xml:space="preserve">00009</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D35">
+        <is>
+          <t xml:space="preserve">ምስክር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E35">
+        <is>
+          <t xml:space="preserve">ም⁞ስ⁞ክ⁞ር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G35">
+        <is>
+          <t xml:space="preserve">ትመሰክራለች</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H35">
+        <is>
+          <t xml:space="preserve">tmesekralec</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I35">
+        <is>
+          <t xml:space="preserve">[ት+ለች]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J35">
+        <is>
+          <t xml:space="preserve">VINA•01T3SF•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K35">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L35">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M35">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="65">
+        <v>34</v>
+      </c>
+      <c t="inlineStr" r="B36">
+        <is>
+          <t xml:space="preserve">03</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C36">
+        <is>
+          <t xml:space="preserve">00010</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D36">
+        <is>
+          <t xml:space="preserve">ምስክር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E36">
+        <is>
+          <t xml:space="preserve">ም⁞ስ⁞ክ⁞ር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G36">
+        <is>
+          <t xml:space="preserve">ይመሰክራሉ</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H36">
+        <is>
+          <t xml:space="preserve">ymesekralu</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I36">
+        <is>
+          <t xml:space="preserve">[ይ+ሉ]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J36">
+        <is>
+          <t xml:space="preserve">VINA•01T3SM•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K36">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L36">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M36">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="65">
+        <v>35</v>
+      </c>
+      <c t="inlineStr" r="B37">
+        <is>
+          <t xml:space="preserve">03</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C37">
+        <is>
+          <t xml:space="preserve">00011</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D37">
+        <is>
+          <t xml:space="preserve">ምስክር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E37">
+        <is>
+          <t xml:space="preserve">ም⁞ስ⁞ክ⁞ር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G37">
+        <is>
+          <t xml:space="preserve">ይመሰክራሉ</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H37">
+        <is>
+          <t xml:space="preserve">ymesekralu</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I37">
+        <is>
+          <t xml:space="preserve">[ይ+ሉ]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J37">
+        <is>
+          <t xml:space="preserve">VINA•01T3PF•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K37">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L37">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M37">
+        <is>
+          <t xml:space="preserve">KTagset</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="65">
+        <v>36</v>
+      </c>
+      <c t="inlineStr" r="B38">
+        <is>
+          <t xml:space="preserve">03</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="C38">
+        <is>
+          <t xml:space="preserve">00012</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="D38">
+        <is>
+          <t xml:space="preserve">ምስክር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="E38">
+        <is>
+          <t xml:space="preserve">ም⁞ስ⁞ክ⁞ር</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="G38">
+        <is>
+          <t xml:space="preserve">ይመሰክራሉ</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="H38">
+        <is>
+          <t xml:space="preserve">ymesekralu</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="I38">
+        <is>
+          <t xml:space="preserve">[ይ+ሉ]</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="J38">
+        <is>
+          <t xml:space="preserve">VINA•01T3PM•••</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="K38">
+        <is>
+          <t xml:space="preserve">Verb-Imperfect-Indicative-Active</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="L38">
+        <is>
+          <t xml:space="preserve">Addis Amharic</t>
+        </is>
+      </c>
+      <c t="inlineStr" r="M38">
         <is>
           <t xml:space="preserve">KTagset</t>
         </is>
